--- a/data/market_utilization_df.xlsx
+++ b/data/market_utilization_df.xlsx
@@ -441,48 +441,48 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>aerial_time_utilization</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>aerial_financial_utilization</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>dirt_time_utilization</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>dirt_financial_utilization</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_financial_utilization</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>aerial_time_utilization</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dirt_time_utilization</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
+        <v>0.7253086419753086</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.1899651529734639</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>0.4821428571428572</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1391508926601193</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>0.1832336527272455</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7253086419753086</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4821428571428572</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>0.6765285996055227</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.1515459361560732</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.1394926829945591</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.15024608141374</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6765285996055227</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>0.9494777475022707</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.264017189402838</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>0.3376068376068376</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1210006689328826</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>0.258414288082808</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9494777475022707</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3376068376068376</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>0.525173611111111</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.1029972176332483</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
+        <v>0.3382352941176471</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.09144243081212472</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.1019705141226844</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.525173611111111</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3382352941176471</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
+        <v>0.8137254901960784</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.2178149727894277</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
+        <v>0.5774647887323944</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.2260530017298062</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>0.2190804398045136</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8137254901960784</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5774647887323944</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
+        <v>0.6087662337662337</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.1709136878843419</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.1525030063263315</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>0.1682528561849723</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.6087662337662337</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
+        <v>0.5011990407673861</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.2221632641218141</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
+        <v>0.3616071428571428</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.1834099218080659</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>0.21706255504345</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5011990407673861</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3616071428571428</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
+        <v>0.6194929343308395</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.1882741271846245</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
+        <v>0.5086309523809524</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1971970919715263</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>0.1920185776191526</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6194929343308395</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5086309523809524</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>7329</v>
       </c>
       <c r="B10" t="n">
+        <v>0.2311827956989247</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.09394966337442438</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
+        <v>0.1726190476190476</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.1042203531038123</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>0.09507811660231005</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2311827956989247</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1726190476190476</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>7522</v>
       </c>
       <c r="B11" t="n">
+        <v>0.4155092592592593</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.1059523886052066</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.1476854917347393</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>0.1075695183288684</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4155092592592593</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.375</v>
       </c>
     </row>
   </sheetData>
